--- a/OriginTable/SpeedLevel.xlsx
+++ b/OriginTable/SpeedLevel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21165" windowHeight="12975"/>
+    <workbookView windowHeight="18375"/>
   </bookViews>
   <sheets>
     <sheet name="SpeedLevel" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>Level</t>
   </si>
@@ -50,6 +50,9 @@
     <t>ScoreCost</t>
   </si>
   <si>
+    <t>BombSolidTime</t>
+  </si>
+  <si>
     <t>速度等级</t>
   </si>
   <si>
@@ -69,6 +72,9 @@
   </si>
   <si>
     <t>降速分数消耗</t>
+  </si>
+  <si>
+    <t>生成炸弹块所需固定方块数量</t>
   </si>
   <si>
     <t>int</t>
@@ -706,7 +712,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -725,7 +731,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1039,13 +1051,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="8.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.125" style="2" customWidth="1"/>
@@ -1058,7 +1070,7 @@
     <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:7">
+    <row r="1" s="1" customFormat="1" spans="1:8">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1080,54 +1092,63 @@
       <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:7">
+    <row r="2" s="1" customFormat="1" spans="1:8">
       <c r="A2" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:7">
-      <c r="A3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>14</v>
+    <row r="3" s="1" customFormat="1" spans="1:8">
+      <c r="A3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1149,8 +1170,11 @@
       <c r="G4" s="2">
         <v>0</v>
       </c>
+      <c r="H4" s="8">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -1172,8 +1196,11 @@
       <c r="G5" s="2">
         <v>500</v>
       </c>
+      <c r="H5" s="8">
+        <v>7</v>
+      </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -1195,8 +1222,11 @@
       <c r="G6" s="2">
         <v>1000</v>
       </c>
+      <c r="H6" s="8">
+        <v>7</v>
+      </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -1218,8 +1248,11 @@
       <c r="G7" s="2">
         <v>2000</v>
       </c>
+      <c r="H7" s="8">
+        <v>7</v>
+      </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -1241,8 +1274,11 @@
       <c r="G8" s="2">
         <v>3000</v>
       </c>
+      <c r="H8" s="8">
+        <v>7</v>
+      </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -1264,8 +1300,11 @@
       <c r="G9" s="2">
         <v>4000</v>
       </c>
+      <c r="H9" s="8">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -1286,6 +1325,9 @@
       </c>
       <c r="G10" s="2">
         <v>5000</v>
+      </c>
+      <c r="H10" s="8">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/OriginTable/SpeedLevel.xlsx
+++ b/OriginTable/SpeedLevel.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>Level</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>int</t>
+  </si>
+  <si>
+    <t>float</t>
   </si>
 </sst>
 </file>
@@ -712,7 +715,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -731,13 +734,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1054,7 +1051,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="K20" sqref="K20:K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
@@ -1092,7 +1089,7 @@
       <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1118,33 +1115,33 @@
       <c r="G2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:8">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="7" t="s">
+      <c r="E3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>16</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1170,7 +1167,7 @@
       <c r="G4" s="2">
         <v>0</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="2">
         <v>7</v>
       </c>
     </row>
@@ -1196,7 +1193,7 @@
       <c r="G5" s="2">
         <v>500</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="2">
         <v>7</v>
       </c>
     </row>
@@ -1222,7 +1219,7 @@
       <c r="G6" s="2">
         <v>1000</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="2">
         <v>7</v>
       </c>
     </row>
@@ -1248,7 +1245,7 @@
       <c r="G7" s="2">
         <v>2000</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="2">
         <v>7</v>
       </c>
     </row>
@@ -1274,7 +1271,7 @@
       <c r="G8" s="2">
         <v>3000</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="2">
         <v>7</v>
       </c>
     </row>
@@ -1300,7 +1297,7 @@
       <c r="G9" s="2">
         <v>4000</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="2">
         <v>7</v>
       </c>
     </row>
@@ -1326,7 +1323,7 @@
       <c r="G10" s="2">
         <v>5000</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="2">
         <v>7</v>
       </c>
     </row>
